--- a/data/Eksklusionslister/Akademiker Pension_eksklusionsliste_isin.xlsx
+++ b/data/Eksklusionslister/Akademiker Pension_eksklusionsliste_isin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
+          <t>Selskab_normalized</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Selskab_normalized</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>Matched Udsteder</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Matched Udsteder</t>
+          <t>Matched Værdipapirets navn</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Matched Værdipapirets navn</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
@@ -486,10 +481,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>agritraderesources</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>agritraderesources</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,11 +502,6 @@
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -524,10 +518,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>archcoal</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>archcoal</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -541,11 +539,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -562,10 +555,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>banpupubliccompany</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>banpupubliccompany</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -579,11 +576,6 @@
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -600,10 +592,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>chinacoalenergycompany</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>chinacoalenergycompany</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -617,11 +613,6 @@
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -638,10 +629,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>chinashenhuaenergycompany</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>chinashenhuaenergycompany</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -655,11 +650,6 @@
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -676,10 +666,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>coalindia</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>coalindia</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -693,11 +687,6 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -714,10 +703,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>consolenergy</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>consolenergy</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -731,11 +724,6 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -752,10 +740,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>dmciholdings</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>dmciholdings</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -769,11 +761,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -790,10 +777,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>exxaroresources</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>exxaroresources</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -807,11 +798,6 @@
         </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -828,10 +814,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>gujaratmineraldevelopmentcorporation</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>gujaratmineraldevelopmentcorporation</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -845,11 +835,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -866,10 +851,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>indotambangrayatbkpt</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>indotambangrayatbkpt</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,11 +872,6 @@
         </is>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -904,10 +888,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>innermongoliayitaicoalco</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>innermongoliayitaicoalco</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -921,11 +909,6 @@
         </is>
       </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -942,10 +925,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>lubelskiwęgielbogdanka</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>lubelskiwęgielbogdanka</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -959,11 +946,6 @@
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -980,10 +962,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>peabodyenergycorporation</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>peabodyenergycorporation</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -997,11 +983,6 @@
         </is>
       </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1018,10 +999,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ptadaroenergytbk</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ptadaroenergytbk</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1035,11 +1020,6 @@
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1056,10 +1036,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ptbumiresourcestbk</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ptbumiresourcestbk</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1073,11 +1057,6 @@
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1094,10 +1073,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ptdeltaduniamakmurtbk</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ptdeltaduniamakmurtbk</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1111,11 +1094,6 @@
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1132,10 +1110,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ptharumenergytbk</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ptharumenergytbk</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1149,11 +1131,6 @@
         </is>
       </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1170,10 +1147,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ptindikaenergytbk</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ptindikaenergytbk</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1187,11 +1168,6 @@
         </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1208,10 +1184,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ptunitedtractorstbk</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ptunitedtractorstbk</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1225,11 +1205,6 @@
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1246,10 +1221,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>shanxiluanenvironmentalenergydevelopmentco</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>shanxiluanenvironmentalenergydevelopmentco</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1263,11 +1242,6 @@
         </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1284,10 +1258,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>washingtonhsoulpattinsonandcompany</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>washingtonhsoulpattinsonandcompany</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1301,11 +1279,6 @@
         </is>
       </c>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1322,10 +1295,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>whitehavencoal</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>whitehavencoal</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1339,11 +1316,6 @@
         </is>
       </c>
       <c r="G24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1360,10 +1332,14 @@
           <t>Kul</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>yanzhoucoalminingcompany</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>yanzhoucoalminingcompany</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1377,11 +1353,6 @@
         </is>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1398,10 +1369,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>energytransferequitylp</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>energytransferequitylp</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1415,11 +1390,6 @@
         </is>
       </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1436,10 +1406,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>energytransferoperatinglp</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>energytransferoperatinglp</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1453,11 +1427,6 @@
         </is>
       </c>
       <c r="G27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1474,10 +1443,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>g4s</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>g4s</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1491,11 +1464,6 @@
         </is>
       </c>
       <c r="G28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1512,10 +1480,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>geogroupinc</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>geogroupinc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1529,11 +1501,6 @@
         </is>
       </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1550,10 +1517,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>glencore</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>glencore</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1567,11 +1538,6 @@
         </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1588,10 +1554,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>heidelbergcementag</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>heidelbergcementag</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1605,11 +1575,6 @@
         </is>
       </c>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1626,28 +1591,27 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>motorolasolutions</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>motorolasolutions</t>
+          <t>['US6200763075']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['US6200763075']</t>
+          <t>['Motorola Solutions Inc.', nan, 'USA']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['Motorola Solutions Inc.', nan, 'USA']</t>
+          <t>['Motorola Solutions Inc.', 'Motorola\xa0Solutions']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>['Motorola Solutions Inc.', 'Motorola\xa0Solutions']</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>['Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Guldborgsund', 'Holstebro', 'Horsens', 'Hvidovre', 'Høje Taastrup', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Mariagerfjord', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Rødovre', 'Skanderborg', 'Solrød', 'Svendborg', 'Thisted', 'Tønder', 'Vallensbæk', 'Viborg', 'Aabenraa', 'Egedal', 'Favrskov', 'Region Sjælland', 'Fanø', 'Esbjerg']</t>
         </is>
@@ -1664,10 +1628,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ocpgroup</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ocpgroup</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1681,11 +1649,6 @@
         </is>
       </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1702,28 +1665,27 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>petroleosdevenezuelasa</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>petroleosdevenezuelasa</t>
+          <t>['USP7807HAT25', 'USP7807HAV70', 'XS0294367205']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['USP7807HAT25', 'USP7807HAV70', 'XS0294367205']</t>
+          <t>['Petroleos de Venezuela SA', '8.50% Petroleos de Venezuela SA 2020']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['Petroleos de Venezuela SA', '8.50% Petroleos de Venezuela SA 2020']</t>
+          <t>['PETROLEOS DE VENEZUELA S 16.05.2024', '8.50% Petroleos de Venezuela SA 2020', 'PETROLEOS DE VENEZUELA S 12.04.2037']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>['PETROLEOS DE VENEZUELA S 16.05.2024', '8.50% Petroleos de Venezuela SA 2020', 'PETROLEOS DE VENEZUELA S 12.04.2037']</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
         <is>
           <t>['Rødovre', 'Vejen', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
         </is>
@@ -1740,10 +1702,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>rheinmetallag</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rheinmetallag</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1757,11 +1723,6 @@
         </is>
       </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1778,10 +1739,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>samarcomineracao</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>samarcomineracao</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1795,11 +1760,6 @@
         </is>
       </c>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1816,10 +1776,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>saudiarabianoilcoaramco</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>saudiarabianoilcoaramco</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1833,11 +1797,6 @@
         </is>
       </c>
       <c r="G37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1854,10 +1813,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>sunocologisticspartnersoperationslp</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>sunocologisticspartnersoperationslp</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1871,11 +1834,6 @@
         </is>
       </c>
       <c r="G38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1892,28 +1850,27 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>valesa</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>valesa</t>
+          <t>['BRVALEACNOR0', 'US91912E1055']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['BRVALEACNOR0', 'US91912E1055']</t>
+          <t>['Vale Rio Doce', nan, 'Vale SA']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['Vale Rio Doce', nan, 'Vale SA']</t>
+          <t>['VALE SA', 'Vale SA', 'VALE SA-SP ADR']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
-        <is>
-          <t>['VALE SA', 'VALE SA-SP ADR', 'Vale SA']</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
         <is>
           <t>['Fredericia', 'Greve', 'Herning', 'Hillerød', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Mariagerfjord', 'Næstved', 'Randers', 'Skive', 'Varde', 'Aabenraa', 'Norddjurs', 'Aalborg', 'Aarhus']</t>
         </is>
@@ -1930,28 +1887,27 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>walmartstoresinc</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>walmartstoresinc</t>
+          <t>['US9311421039']</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['US9311421039']</t>
+          <t>['WALMART INC', 'Wal-Mart Stores Inc', 'Walmart\xa0Inc']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['WALMART INC', 'Wal-Mart Stores Inc', 'Walmart\xa0Inc']</t>
+          <t>['Wal-Mart Stores Inc']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
-        <is>
-          <t>['Wal-Mart Stores Inc']</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
         <is>
           <t>['Faaborg-Midtfyn', 'Guldborgsund', 'Hedensted', 'Helsingør', 'Hørsholm', 'Middelfart', 'Norddjurs', 'Nordfyn', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Ikast-Brande', 'Esbjerg', 'Odense']</t>
         </is>
@@ -1968,28 +1924,27 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>wizzair</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>wizzair</t>
+          <t>['XS2433361719']</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['XS2433361719']</t>
+          <t>[nan, 'Wizz Air Finance Co BV 19.01.2026']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[nan, 'Wizz Air Finance Co BV 19.01.2026']</t>
+          <t>['Wizz Air Finance Co. BV', 'WIZZLN 1 01/19/26']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
-        <is>
-          <t>['Wizz Air Finance Co. BV', 'WIZZLN 1 01/19/26']</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
         <is>
           <t>['Aarhus', 'Fredericia', 'Greve', 'Herning', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Næstved', 'Randers', 'Skive', 'Varde', 'Hillerød', 'Aabenraa']</t>
         </is>
@@ -2006,15 +1961,19 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>bpplc</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>bpplc</t>
+          <t>['GB0007980591']</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['GB0007980591']</t>
+          <t>['BP Plc']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2023,11 +1982,6 @@
         </is>
       </c>
       <c r="G42" t="inlineStr">
-        <is>
-          <t>['BP Plc']</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
         <is>
           <t>['Rødovre']</t>
         </is>
@@ -2044,15 +1998,19 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>chevron</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>chevron</t>
+          <t>['US1667641005']</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['US1667641005']</t>
+          <t>['Chevron Corp.']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2061,11 +2019,6 @@
         </is>
       </c>
       <c r="G43" t="inlineStr">
-        <is>
-          <t>['Chevron Corp.']</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
         <is>
           <t>['Rødovre']</t>
         </is>
@@ -2082,28 +2035,27 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>equinor</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>equinor</t>
+          <t>['NO0010096985']</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['NO0010096985']</t>
+          <t>['Equinor ASA', nan]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['Equinor ASA', nan]</t>
+          <t>['Equinor ASA', 'Equinor Asa']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
-        <is>
-          <t>['Equinor ASA', 'Equinor Asa']</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
         <is>
           <t>['Rødovre', 'Norddjurs']</t>
         </is>
@@ -2120,10 +2072,14 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>exxonmobil</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>exxonmobil</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2137,11 +2093,6 @@
         </is>
       </c>
       <c r="G45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2158,10 +2109,14 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>northwesterncorporation</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>northwesterncorporation</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2175,11 +2130,6 @@
         </is>
       </c>
       <c r="G46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2196,28 +2146,27 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>petrobras</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>petrobras</t>
+          <t>['US71647NBJ72']</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['US71647NBJ72']</t>
+          <t>['Holland', 'PETROBRAS GLOBAL FINANCE  ', 'Petrobras Global Finance BV']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['Holland', 'PETROBRAS GLOBAL FINANCE  ', 'Petrobras Global Finance BV']</t>
+          <t>['PETROBRAS GLOBAL FINANCE 5.5% 10.06.2051']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
-        <is>
-          <t>['PETROBRAS GLOBAL FINANCE 5.5% 10.06.2051']</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
         <is>
           <t>['Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
         </is>
@@ -2234,10 +2183,14 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>petrocchina</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>petrocchina</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2251,11 +2204,6 @@
         </is>
       </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2272,15 +2220,19 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>repsol</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>repsol</t>
+          <t>['ES0173516115']</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['ES0173516115']</t>
+          <t>['Repsol S.A.']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2289,11 +2241,6 @@
         </is>
       </c>
       <c r="G49" t="inlineStr">
-        <is>
-          <t>['Repsol S.A.']</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>['Rødovre']</t>
         </is>
@@ -2310,10 +2257,14 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>rosneft</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rosneft</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2327,11 +2278,6 @@
         </is>
       </c>
       <c r="G50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2348,28 +2294,27 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>shell</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>['GB00BP6MXD84']</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['GB00BP6MXD84']</t>
+          <t>['Shell Plc', 'SHELLE PLC']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['Shell Plc', 'SHELLE PLC']</t>
+          <t>['Shell Plc', 'Shell PLC']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
-        <is>
-          <t>['Shell Plc', 'Shell PLC']</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
         <is>
           <t>['Rødovre', 'Herning']</t>
         </is>
@@ -2386,10 +2331,14 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>sinopecchinapetroleumandchemicalcorporation</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>sinopecchinapetroleumandchemicalcorporation</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2403,11 +2352,6 @@
         </is>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2424,10 +2368,14 @@
           <t>Olie og gas</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>totalsa</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>totalsa</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2441,11 +2389,6 @@
         </is>
       </c>
       <c r="G53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2462,10 +2405,14 @@
           <t>Tjæresand</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>athabascaoilcorporation</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>athabascaoilcorporation</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2479,11 +2426,6 @@
         </is>
       </c>
       <c r="G54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2500,10 +2442,14 @@
           <t>Tjæresand</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>canadiannaturalresources</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>canadiannaturalresources</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2517,11 +2463,6 @@
         </is>
       </c>
       <c r="G55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2538,10 +2479,14 @@
           <t>Tjæresand</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>cenovusenergyinc</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>cenovusenergyinc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2555,11 +2500,6 @@
         </is>
       </c>
       <c r="G56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2576,10 +2516,14 @@
           <t>Tjæresand</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>megenergycorp</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>megenergycorp</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2593,11 +2537,6 @@
         </is>
       </c>
       <c r="G57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2614,10 +2553,14 @@
           <t>Tjæresand</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>suncorenergyinc</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>suncorenergyinc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2631,11 +2574,6 @@
         </is>
       </c>
       <c r="G58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2652,10 +2590,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>anhuigreatwallmilitaryindustrycoltd</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>anhuigreatwallmilitaryindustrycoltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2669,11 +2611,6 @@
         </is>
       </c>
       <c r="G59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2690,10 +2627,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>arytindustries</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>arytindustries</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2707,11 +2648,6 @@
         </is>
       </c>
       <c r="G60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2728,10 +2664,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>aselsanelektroniksanayiveticaret</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>aselsanelektroniksanayiveticaret</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2745,11 +2685,6 @@
         </is>
       </c>
       <c r="G61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2766,10 +2701,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ashotashkelon</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ashotashkelon</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2783,11 +2722,6 @@
         </is>
       </c>
       <c r="G62" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2804,10 +2738,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>babcockwilcoxcompany</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>babcockwilcoxcompany</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2821,11 +2759,6 @@
         </is>
       </c>
       <c r="G63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2842,10 +2775,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>babcockinternationalgroupplc</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>babcockinternationalgroupplc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2859,11 +2796,6 @@
         </is>
       </c>
       <c r="G64" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2880,10 +2812,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>baesystemsplc</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>baesystemsplc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2897,11 +2833,6 @@
         </is>
       </c>
       <c r="G65" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2918,10 +2849,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>bharatdynamicslimited</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>bharatdynamicslimited</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2935,11 +2870,6 @@
         </is>
       </c>
       <c r="G66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2956,10 +2886,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>boeing</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>boeing</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2973,11 +2907,6 @@
         </is>
       </c>
       <c r="G67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2994,10 +2923,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>caciinternational</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>caciinternational</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3011,11 +2944,6 @@
         </is>
       </c>
       <c r="G68" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3032,10 +2960,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>chinashipbuildingindustrycoltd</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>chinashipbuildingindustrycoltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3049,11 +2981,6 @@
         </is>
       </c>
       <c r="G69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3062,7 +2989,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CNIM</t>
+          <t>Dassault Aviation</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3070,37 +2997,36 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>dassaultaviation</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>cnim</t>
+          <t>['FR0014004L86']</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['IT0004931058']</t>
+          <t>['Dassault Aviation S.A.']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[nan]</t>
+          <t>['Dassault Aviation S.A.']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Maire Tecnimont SpA']</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>['Egedal', 'Favrskov']</t>
+          <t>['Rødovre']</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Dassault Aviation</t>
+          <t>Ducommun Incorporated</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3108,37 +3034,36 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ducommunincorporated</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>dassaultaviation</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['FR0014004L86']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['Dassault Aviation S.A.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['Dassault Aviation S.A.']</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>['Rødovre']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ducommun Incorporated</t>
+          <t>Elbit Systems</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3146,10 +3071,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>elbitsystems</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ducommunincorporated</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3163,11 +3092,6 @@
         </is>
       </c>
       <c r="G72" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3176,7 +3100,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EADS</t>
+          <t>Finmeccanica</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3186,39 +3110,34 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>FØLG OP</t>
+          <t>finmeccanica</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>eads</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['US3755581036']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['Gilead Science', 'Gilead Sciences', 'Gilead Sciences Inc', 'GILEAD SCIENCES INC', 'Gilead Sciences Inc.', nan, 'USA']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['Gilead Science', 'GILEAD SCIENCES INC', 'Gilead Sciences Inc', 'Gilead Sciences Inc.', 'Gilead Sciences', 'Gilead Sciences, Inc.']</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>['Ikast-Brande', 'Fredericia', 'Greve', 'Herning', 'Hillerød', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Næstved', 'Randers', 'Skive', 'Varde', 'Aabenraa', 'Ballerup', 'Brøndby', 'Brønderslev', 'Fredensborg', 'Frederiksberg', 'Furesø', 'Faaborg-Midtfyn', 'Hedensted', 'Hvidovre', 'Kerteminde', 'Køge', 'Lolland', 'Morsø', 'Region Midtjylland', 'Region Nordjylland', 'Region Sjælland', 'Ringkøbing-Skjern', 'Rudersdal', 'Silkeborg', 'Sorø', 'Struer', 'Rødovre', 'Assens', 'Frederikssund', 'Guldborgsund', 'Helsingør', 'Horsens', 'Mariagerfjord', 'Middelfart', 'Norddjurs', 'Nordfyn', 'Roskilde', 'Skanderborg', 'Slagelse', 'Svendborg', 'Syddjurs', 'Fanø', 'Esbjerg', 'Odense', 'Aalborg', 'Aarhus']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Elbit Systems</t>
+          <t>General Dynamics</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3226,10 +3145,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>generaldynamics</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>elbitsystems</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3243,11 +3166,6 @@
         </is>
       </c>
       <c r="G74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3256,7 +3174,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Finmeccanica</t>
+          <t>Hanwha</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3264,37 +3182,36 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>hanwha</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>finmeccanica</t>
+          <t>['KR7009830001', 'KR7042660001']</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Hanwha Solutions Corp', nan, 'Sydkorea']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Hanwha Solutions Corp', 'Hanwha Solutions Corp.', 'Hanwha Ocean Co. Ltd.']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Rudersdal', 'Mariagerfjord', 'Fanø']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fluor</t>
+          <t>Honeywell International</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3304,39 +3221,34 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FØLG OP</t>
+          <t>honeywellinternational</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>fluor</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['INE048G01026']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['Navin Fluorine International L']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['Navin Fluorine International L']</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>['Rødovre']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GenCorp</t>
+          <t>Huntington Ingalls Industries</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3346,39 +3258,34 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>FØLG OP</t>
+          <t>huntingtoningallsindustries</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>gencorp</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['US7599161095']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[nan, 'REPLIGEN CORP', 'Repligen Corp', 'Repligen Corp.', 'USA']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['Repligen Corp', 'REPLIGEN CORP', 'Repligen Corp.']</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>['Faaborg-Midtfyn', 'Guldborgsund', 'Hedensted', 'Helsingør', 'Hørsholm', 'Mariagerfjord', 'Middelfart', 'Norddjurs', 'Nordfyn', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Furesø', 'Ikast-Brande', 'Rudersdal', 'Rødovre', 'Fanø', 'Odense']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>General Dynamics</t>
+          <t>Jacobs Engineering Group</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3386,10 +3293,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>jacobsengineeringgroup</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>generaldynamics</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3403,11 +3314,6 @@
         </is>
       </c>
       <c r="G78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3416,7 +3322,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hanwha</t>
+          <t>L3 Harris Technologies Inc</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3424,37 +3330,36 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>l3harristechnologiesinc</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>hanwha</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['KR7009830001', 'KR7042660001']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['Hanwha Solutions Corp', nan, 'Sydkorea']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Hanwha Solutions Corp', 'Hanwha Solutions Corp.', 'Hanwha Ocean Co. Ltd.']</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>['Rudersdal', 'Mariagerfjord', 'Fanø']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Honeywell International</t>
+          <t>Larsen &amp; Toubro</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3462,10 +3367,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>larsentoubro</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>honeywellinternational</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3479,11 +3388,6 @@
         </is>
       </c>
       <c r="G80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3492,7 +3396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Huntington Ingalls Industries</t>
+          <t>LIG Nex1 Co.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3500,10 +3404,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>lignex1co</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>huntingtoningallsindustries</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3517,11 +3425,6 @@
         </is>
       </c>
       <c r="G81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3530,7 +3433,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Jacobs Engineering Group</t>
+          <t>Lockheed Martin</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3538,10 +3441,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>lockheedmartin</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jacobsengineeringgroup</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3555,11 +3462,6 @@
         </is>
       </c>
       <c r="G82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3568,7 +3470,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>L3 Harris Technologies Inc</t>
+          <t>MindTree Limited</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3576,10 +3478,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>mindtreelimited</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>l3harristechnologiesinc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3593,11 +3499,6 @@
         </is>
       </c>
       <c r="G83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3606,7 +3507,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro</t>
+          <t>MOOG</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3614,10 +3515,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>moog</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>larsentoubro</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3631,11 +3536,6 @@
         </is>
       </c>
       <c r="G84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3644,7 +3544,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LIG Nex1 Co.</t>
+          <t>Northrop Grumman</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3652,10 +3552,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>northropgrumman</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>lignex1co</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3669,11 +3573,6 @@
         </is>
       </c>
       <c r="G85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3682,7 +3581,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Lockheed Martin</t>
+          <t>Poongsan Corporation</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3690,10 +3589,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>poongsancorporation</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>lockheedmartin</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3707,11 +3610,6 @@
         </is>
       </c>
       <c r="G86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3720,7 +3618,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MindTree Limited</t>
+          <t>Poongsan Holdings Corporation</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3728,10 +3626,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>poongsanholdingscorporation</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>mindtreelimited</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3745,11 +3647,6 @@
         </is>
       </c>
       <c r="G87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3758,7 +3655,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MOOG</t>
+          <t>Raytheon</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3766,10 +3663,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>raytheon</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>moog</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3783,11 +3684,6 @@
         </is>
       </c>
       <c r="G88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3796,7 +3692,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Northrop Grumman</t>
+          <t>Rolls Royce Holdings Plc</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3804,37 +3700,36 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>rollsroyceholdingsplc</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>northropgrumman</t>
+          <t>['GB00B63H8491']</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Rolls-Royce Holdings Plc']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Rolls-Royce Holdings Plc']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Rødovre']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Poongsan Corporation</t>
+          <t>S&amp;T Dynamics</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3842,10 +3737,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>stdynamics</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>poongsancorporation</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3859,11 +3758,6 @@
         </is>
       </c>
       <c r="G90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3872,7 +3766,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Poongsan Holdings Corporation</t>
+          <t>Samsung Techwin Co. Ltd.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3880,10 +3774,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>samsungtechwincoltd</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>poongsanholdingscorporation</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3897,11 +3795,6 @@
         </is>
       </c>
       <c r="G91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3910,7 +3803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Raytheon</t>
+          <t>Serco Group PLC</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3918,10 +3811,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>sercogroupplc</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>raytheon</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3935,11 +3832,6 @@
         </is>
       </c>
       <c r="G92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3948,7 +3840,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rolls Royce Holdings Plc</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3956,37 +3848,36 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>tatapowercompanylimited</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rollsroyceholdingsplc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['GB00B63H8491']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['Rolls-Royce Holdings Plc']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['Rolls-Royce Holdings Plc']</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>['Rødovre']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S&amp;T Dynamics</t>
+          <t>Textron</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3994,10 +3885,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>textron</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>stdynamics</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4011,11 +3906,6 @@
         </is>
       </c>
       <c r="G94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4024,7 +3914,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S&amp;T Holdings Co. Ltd</t>
+          <t>Thales SA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4032,37 +3922,36 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>thalessa</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>stholdingscoltd</t>
+          <t>['FR0000121329']</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['JP3752900005']</t>
+          <t>['Thales S.A.']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['Japan', 'Japan Post Holdings Co. Ltd.', nan]</t>
+          <t>['Thales S.A.']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['Japan Post Holdings Co. Ltd.', 'Japan Post Holdings Co Ltd', 'Japan Post Holdings Co., Ltd.']</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>['Fanø', 'Rødovre', 'Esbjerg', 'Aarhus']</t>
+          <t>['Rødovre']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Safran</t>
+          <t>Ultra Electronics Holdings Plc</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4072,39 +3961,34 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>FØLG OP</t>
+          <t>ultraelectronicsholdingsplc</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>safran</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['FR0000064578', 'FR0011981968', 'FR001400BDD5', 'FR001400MDV4', 'FR001400P9F6', 'XS1859337419', 'XS2053846262', 'XS2054539627', 'XS2110799751', 'XS2232102876', 'XS2332975007', 'XS2390152986']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['Frankrig', nan, 'Arval Service Lease SA/France 04.01.2026', 'Covivio SA/France 05.06.2032', '5.88% Altice France SA/France 2027', 'Altice France SA/France 01.02.2027', '3.38% Altice France SA/France 2028', 'Altice France SA/France 15.01.2028', 'ALTICE FRANCE SA (FRANCE)', '4.13% Altice France SA/France 2029', 'Altice France SA/France 15.07.2029', '4.25% Altice France SA/France 2029', 'Altice France SA/France 15.10.2029']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['Covivio SA/France (REIT)', 'Worldline SA/France', 'Arval Service Lease SA/France 04.01.2026', 'ARVASL 3 3/8 01/04/26', 'Covivio SA/France 05.06.2032', 'COVFP 4 5/8 06/05/32', 'Covivio SA/France Rettighed 2024', '5.88% Altice France SA/France 2027', 'SFRFP 5 7/8 02/01/27', '3.38% Altice France SA/France 2028', 'SFRFP 3 3/8 01/15/28', '2.50% Altice France 1/2025', '2.13% Altice France 2/2025', '4.13% Altice France SA/France 2029', 'SFRFP 4 07/15/29', '4.25% Altice France SA/France 2029', 'SFRFP 4 1/4 10/15/29']</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>['Fanø', 'Norddjurs', 'Fredericia', 'Greve', 'Herning', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Mariagerfjord', 'Næstved', 'Skive', 'Varde', 'Aabenraa', 'Odense', 'Ringkøbing-Skjern', 'Lemvig', 'Randers', 'Region Hovedstaden', 'Hillerød']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Samsung Techwin Co. Ltd.</t>
+          <t>Walachandnagar Industries Ltd.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4112,10 +3996,14 @@
           <t>Våben</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>walachandnagarindustriesltd</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>samsungtechwincoltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4129,11 +4017,6 @@
         </is>
       </c>
       <c r="G97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4142,18 +4025,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Serco Group PLC</t>
+          <t xml:space="preserve">Badeco Adria </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Våben</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>Tobak</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>badecoadria</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>sercogroupplc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4167,11 +4054,6 @@
         </is>
       </c>
       <c r="G98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4180,18 +4062,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>CTO Plc</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Våben</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>Tobak</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ctoplc</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>tatapowercompanylimited</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4205,11 +4091,6 @@
         </is>
       </c>
       <c r="G99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4218,18 +4099,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Textron</t>
+          <t>Scandinavian Tobacco Group</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Våben</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>Tobak</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>scandinaviantobaccogroup</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>textron</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4243,11 +4128,6 @@
         </is>
       </c>
       <c r="G100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4256,56 +4136,59 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Thales SA</t>
+          <t>Eastern Company</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Våben</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>Tobak</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>easterncompany</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>thalessa</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['FR0000121329']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['Thales S.A.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['Thales S.A.']</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>['Rødovre']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ultra Electronics Holdings Plc</t>
+          <t>Karelia Tobacco CO. S.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Våben</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>Tobak</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>kareliatobaccocosa</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ultraelectronicsholdingsplc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4319,11 +4202,6 @@
         </is>
       </c>
       <c r="G102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4332,18 +4210,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Walachandnagar Industries Ltd.</t>
+          <t>Shanghai Industrial Holdings</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Våben</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>Tobak</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>shanghaiindustrialholdings</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>walachandnagarindustriesltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4357,11 +4239,6 @@
         </is>
       </c>
       <c r="G103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4370,7 +4247,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Badeco Adria </t>
+          <t>Godfrey Phillips India Ltd</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4378,10 +4255,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>godfreyphillipsindialtd</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>badecoadria</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4395,11 +4276,6 @@
         </is>
       </c>
       <c r="G104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4408,7 +4284,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CTO Plc</t>
+          <t>Golden Tobacco Ltd</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4416,10 +4292,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>goldentobaccoltd</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ctoplc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4433,11 +4313,6 @@
         </is>
       </c>
       <c r="G105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4446,7 +4321,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Scandinavian Tobacco Group</t>
+          <t>ITC Ltd</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4454,10 +4329,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>itcltd</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>scandinaviantobaccogroup</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4471,11 +4350,6 @@
         </is>
       </c>
       <c r="G106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4484,7 +4358,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Eastern Company</t>
+          <t>NTC Industries Ltd</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4492,10 +4366,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ntcindustriesltd</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>easterncompany</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4509,11 +4387,6 @@
         </is>
       </c>
       <c r="G107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4522,7 +4395,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Karelia Tobacco CO. S.A.</t>
+          <t>Sinnar Bidi Udyog Ltd</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4530,10 +4403,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>sinnarbidiudyogltd</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>kareliatobaccocosa</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4547,11 +4424,6 @@
         </is>
       </c>
       <c r="G108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4560,7 +4432,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Shanghai Industrial Holdings</t>
+          <t>VST Industries Ltd</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4568,10 +4440,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>vstindustriesltd</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>shanghaiindustrialholdings</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4585,11 +4461,6 @@
         </is>
       </c>
       <c r="G109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4598,7 +4469,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Godfrey Phillips India Ltd</t>
+          <t>Gudang Garam Tbk PT</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4606,10 +4477,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>gudanggaramtbkpt</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>godfreyphillipsindialtd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4623,11 +4498,6 @@
         </is>
       </c>
       <c r="G110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4636,7 +4506,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Golden Tobacco Ltd</t>
+          <t>HM Sampoerna Tbk PT</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4644,10 +4514,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>hmsampoernatbkpt</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>goldentobaccoltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4661,11 +4535,6 @@
         </is>
       </c>
       <c r="G111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4674,7 +4543,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ITC Ltd</t>
+          <t>Wismilak Inti Makmur Tbk PT</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4682,10 +4551,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>wismilakintimakmurtbkpt</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>itcltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4699,11 +4572,6 @@
         </is>
       </c>
       <c r="G112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4712,7 +4580,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NTC Industries Ltd</t>
+          <t>Japan Tobacco Inc</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4720,10 +4588,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>japantobaccoinc</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ntcindustriesltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4737,11 +4609,6 @@
         </is>
       </c>
       <c r="G113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4750,7 +4617,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sinnar Bidi Udyog Ltd</t>
+          <t>Al Eqbal for Investment</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4758,10 +4625,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>aleqbalforinvestment</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>sinnarbidiudyogltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4775,11 +4646,6 @@
         </is>
       </c>
       <c r="G114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4788,7 +4654,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>VST Industries Ltd</t>
+          <t>Union Tobacco &amp; Cigarette Industries</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4796,10 +4662,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>uniontobaccocigaretteindustries</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vstindustriesltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4813,11 +4683,6 @@
         </is>
       </c>
       <c r="G115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4826,7 +4691,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Gudang Garam Tbk PT</t>
+          <t>KT&amp;G Corp.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4834,10 +4699,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ktgcorp</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>gudanggaramtbkpt</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4851,11 +4720,6 @@
         </is>
       </c>
       <c r="G116" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4864,7 +4728,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HM Sampoerna Tbk PT</t>
+          <t>Duvanska Industrija Ad Bujanovac</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4872,10 +4736,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>duvanskaindustrijaadbujanovac</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>hmsampoernatbkpt</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4889,11 +4757,6 @@
         </is>
       </c>
       <c r="G117" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4902,7 +4765,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wismilak Inti Makmur Tbk PT</t>
+          <t>British American Tobacco</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4910,10 +4773,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>britishamericantobacco</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>wismilakintimakmurtbkpt</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4927,11 +4794,6 @@
         </is>
       </c>
       <c r="G118" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4940,7 +4802,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Japan Tobacco Inc</t>
+          <t>Imperial Brands Plc</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4948,10 +4810,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>imperialbrandsplc</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>japantobaccoinc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4965,11 +4831,6 @@
         </is>
       </c>
       <c r="G119" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4978,7 +4839,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Al Eqbal for Investment</t>
+          <t>22nd Century Group Inc</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4986,10 +4847,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>22ndcenturygroupinc</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>aleqbalforinvestment</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5003,11 +4868,6 @@
         </is>
       </c>
       <c r="G120" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5016,7 +4876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Union Tobacco &amp; Cigarette Industries</t>
+          <t>Altria Group Inc</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5024,10 +4884,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>altriagroupinc</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>uniontobaccocigaretteindustries</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5041,11 +4905,6 @@
         </is>
       </c>
       <c r="G121" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5054,7 +4913,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>KT&amp;G Corp.</t>
+          <t>Canna Corp</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5062,10 +4921,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>cannacorp</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ktgcorp</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5079,11 +4942,6 @@
         </is>
       </c>
       <c r="G122" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5092,7 +4950,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Duvanska Industrija Ad Bujanovac</t>
+          <t>Greenlane Holdings Inc – A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5100,10 +4958,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>greenlaneholdingsinca</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>duvanskaindustrijaadbujanovac</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5117,11 +4979,6 @@
         </is>
       </c>
       <c r="G123" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5130,7 +4987,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>British American Tobacco</t>
+          <t>Philip Morris International</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5138,10 +4995,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>philipmorrisinternational</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>britishamericantobacco</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5155,11 +5016,6 @@
         </is>
       </c>
       <c r="G124" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5168,7 +5024,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Imperial Brands Plc</t>
+          <t>Turning Point Brands Inc</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5176,10 +5032,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>turningpointbrandsinc</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>imperialbrandsplc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5193,11 +5053,6 @@
         </is>
       </c>
       <c r="G125" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5206,7 +5061,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>22nd Century Group Inc</t>
+          <t>Vector Group Ltd</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5214,10 +5069,14 @@
           <t>Tobak</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vectorgroupltd</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>22ndcenturygroupinc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5231,11 +5090,6 @@
         </is>
       </c>
       <c r="G126" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5244,18 +5098,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Altria Group Inc</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tobak</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>afghanistan</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>altriagroupinc</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5269,11 +5127,6 @@
         </is>
       </c>
       <c r="G127" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5282,56 +5135,59 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Canna Corp</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tobak</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>cannacorp</t>
+          <t>['XS1319820897', 'XS1678623734']</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Azerbaijan', 'Republic of Azerbaijan', 'Republic of Azerbaijan International Bond', 'REPUBLIC OF AZERBAIJAN  ']</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['SOUTHERN GAS CORRIDOR 6.875% 24.03.2026', '3,5 AZERBJ 01-09-2032 (REGS)', 'REPUBLIC OF AZERBAIJAN 3.5% 01.09.2032']</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Fanø', 'Kalundborg', 'Herning', 'Rødovre', 'Vejen']</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Greenlane Holdings Inc – A</t>
+          <t>Algeriet</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tobak</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>algeriet</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>greenlaneholdingsinca</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5345,11 +5201,6 @@
         </is>
       </c>
       <c r="G129" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5358,18 +5209,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Philip Morris International</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tobak</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>Menneskerettigheder; Klima</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>belarus</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>philipmorrisinternational</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5383,11 +5238,6 @@
         </is>
       </c>
       <c r="G130" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5396,56 +5246,59 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Turning Point Brands Inc</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tobak</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>benin</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>turningpointbrandsinc</t>
+          <t>['XS2286298711', 'XS2366832496', 'XS2759982064']</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Benin Government International Bond', 'Benin', 'BENIN INTL GOV BOND  ', nan, 'BENIN, REPUBLIC OF (GOVERNMENT)', 'Republic of Benin', '7.96% Benin Government International Bond 2038', 'Benin Government International Bond 13.02.2038', 'Benin Government International Obligation 13.02.2038']</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['BENIN INTL GOV BOND 6.875% 19.01.2052', 'BENIN 4.95 01/22/35', 'Benin Government International Bond', 'Benin, Republic Of (Government) 4.95% 20350122', '7,96 BENIN 13-02-2038 (REGS)', '7.96% Benin Government International Bond 2038', 'BENIN 7.96 02/13/38', 'BENIN INTL GOV BOND 7.96% 13.02.2038']</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Rødovre', 'Vejen', 'Fanø', 'Kalundborg', 'Guldborgsund', 'Nordfyn', 'Svendborg', 'Hedensted', 'Slagelse', 'Vesthimmerland', 'Herning', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Greve', 'Kolding', 'Skive', 'Fredericia', 'Hillerød', 'Lemvig', 'Varde', 'Aabenraa']</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Vector Group Ltd</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tobak</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>burkinafaso</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>vectorgroupltd</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5459,11 +5312,6 @@
         </is>
       </c>
       <c r="G132" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5472,7 +5320,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Cameroun</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5480,10 +5328,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>cameroun</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>afghanistan</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5497,11 +5349,6 @@
         </is>
       </c>
       <c r="G133" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5510,7 +5357,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5518,48 +5365,51 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>chad</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>azerbaijan</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['XS1319820897', 'XS1678623734']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['Azerbaijan', 'Republic of Azerbaijan International Bond', 'Republic of Azerbaijan', 'REPUBLIC OF AZERBAIJAN  ']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>['SOUTHERN GAS CORRIDOR 6.875% 24.03.2026', 'REPUBLIC OF AZERBAIJAN 3.5% 01.09.2032', '3,5 AZERBJ 01-09-2032 (REGS)']</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>['Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Herning']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Algeriet</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>cuba</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>algeriet</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5573,11 +5423,6 @@
         </is>
       </c>
       <c r="G135" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5586,18 +5431,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Den Centralafrikanske Republik</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Menneskerettigheder; Klima</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>dencentralafrikanskerepublik</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>belarus</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5611,11 +5460,6 @@
         </is>
       </c>
       <c r="G136" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5624,7 +5468,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Den Demokratiske Republik Congo</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5632,48 +5476,51 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>dendemokratiskerepublikcongo</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>benin</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['XS2286298711', 'XS2366832496', 'XS2759982064']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>['Benin Government International Bond', 'Benin', 'BENIN INTL GOV BOND  ', nan, 'BENIN, REPUBLIC OF (GOVERNMENT)', 'Benin Government International Bond 13.02.2038', 'Benin Government International Obligation 13.02.2038', '7.96% Benin Government International Bond 2038', 'Republic of Benin']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>['BENIN INTL GOV BOND 6.875% 19.01.2052', 'BENIN 4.95 01/22/35', 'Benin Government International Bond', 'Benin, Republic Of (Government) 4.95% 20350122', 'BENIN INTL GOV BOND 7.96% 13.02.2038', 'BENIN 7.96 02/13/38', '7.96% Benin Government International Bond 2038', '7,96 BENIN 13-02-2038 (REGS)']</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>['Rødovre', 'Vejen', 'Fanø', 'Kalundborg', 'Guldborgsund', 'Nordfyn', 'Svendborg', 'Vesthimmerland', 'Hedensted', 'Slagelse', 'Greve', 'Herning', 'Kolding', 'Skive', 'Fredericia', 'Hillerød', 'Lemvig', 'Varde', 'Aabenraa', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>Menneskerettigheder; Klima</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>eritrea</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>burkinafaso</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5687,11 +5534,6 @@
         </is>
       </c>
       <c r="G138" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5700,7 +5542,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cameroun</t>
+          <t>Etiopien</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5708,10 +5550,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>etiopien</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>cameroun</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5725,11 +5571,6 @@
         </is>
       </c>
       <c r="G139" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5738,7 +5579,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5746,10 +5587,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>guinea</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>chad</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5763,11 +5608,6 @@
         </is>
       </c>
       <c r="G140" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5776,7 +5616,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Irak</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5784,10 +5624,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>irak</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>cuba</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5801,11 +5645,6 @@
         </is>
       </c>
       <c r="G141" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5814,18 +5653,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Den Centralafrikanske Republik</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>Menneskerettigheder; Klima</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>dencentralafrikanskerepublik</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5839,11 +5682,6 @@
         </is>
       </c>
       <c r="G142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5852,7 +5690,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Den Demokratiske Republik Congo</t>
+          <t>Kina</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5860,48 +5698,51 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>kina</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>dendemokratiskerepublikcongo</t>
+          <t>['CND10006GPT1', 'CNE000000040', 'CNE0000000K1', 'CNE0000000T2', 'CNE000000222', 'CNE000000230', 'CNE0000007H2', 'CNE000000BQ0', 'CNE000000C66', 'CNE000000FH0', 'CNE000000JP5', 'CNE000000M72', 'CNE000000MK0', 'CNE000000PY4', 'CNE000000RM5', 'CNE000000S01', 'CNE000000SW2', 'CNE000000V89', 'CNE000000W05', 'CNE000000WL7', 'CNE000000WR4', 'CNE000000X38', 'CNE000000XS0', 'CNE0000010T1', 'CNE0000012K6', 'CNE0000013N8', 'CNE0000014W7', 'CNE0000016J9', 'CNE0000018C0', 'CNE000001B33', 'CNE000001CW4', 'CNE000001D15', 'CNE000001DB6', 'CNE000001DQ4', 'CNE000001F21', 'CNE000001F70', 'CNE000001FM8', 'CNE000001G38', 'CNE000001GS3', 'CNE000001M22', 'CNE000001N05', 'CNE000001P37', 'CNE000001P78', 'CNE000001QZ7', 'CNE1000000B8', 'CNE1000005P7', 'CNE100000619', 'CNE100000866', 'CNE1000008F2', 'CNE1000008S5', 'CNE100000D55', 'CNE100000F46', 'CNE100000GR6', 'CNE100000GS4', 'CNE100000K15', 'CNE100000KC0', 'CNE100000KD8', 'CNE100000MD4', 'CNE100000ML7', 'CNE100000SD1', 'CNE100000SF6', 'CNE100000T24', 'CNE100000V46', 'CNE100000XG4', 'CNE100000XX9', 'CNE100000YJ6', 'CNE100001526', 'CNE1000018M7', 'CNE1000018P0', 'CNE100001B07', 'CNE100001CY9', 'CNE100001FR6', 'CNE100001JM9', 'CNE100001NR0', 'CNE100001RG4', 'CNE100001RQ3', 'CNE100001SL2', 'CNE100001VW3', 'CNE100001WV3', 'CNE100001ZV6', 'CNE1000022N7', 'CNE1000023J3', 'CNE100002508', 'CNE100002PC5', 'CNE1000031P3', 'CNE100003662', 'CNE100003G67', 'CNE100003P74', 'CNE100003PS9', 'CNE1000049X9', 'CNE100004G74', 'CNE100004QL0', 'CNE1000051F2', 'CNE1000052S3', 'HK0000116415', 'HK0000317732', 'HK0000867637', 'XS2100725949', 'XS2210960378', 'XS2280833307']</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Kina']</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['CHINA GOVERNMENT BOND 2.67% 25.05.2033', 'Ping An Bank Co. Ltd.', 'CECEP Solar Energy Co. Ltd.', 'China Vanke Co Ltd', 'China Vanke Co. Ltd.', 'China Baoan Group Co. Ltd.', 'Fuyao Glass Industry Group Co.', 'Pangang Group Vanadium Titaniu', 'Sichuan Chuantou Energy Co. Ltd.', 'Shanghai Baosight Software Co.', 'XCMG Construction Machinery Co.', 'Inner Mongolia Yili Industrial', 'Inner Mongolia Yili Industrial Group Co Ltd', 'Wingtech Technology Co. Ltd.', 'Shanghai Jinjiang Internationa', 'Yutong Bus Co. Ltd.', 'AECC Aero-Engine Control Co. Lt', 'Yunnan Yuntianhua Co. Ltd.', 'Qinghai Salt Lake Industry Co. Ltd.', 'Shanghai International Airport', 'China CSSC Holdings Ltd.', 'Xiamen C &amp; D Inc.', 'Shanghai Construction Group Co.', 'Shanghai Fosun Pharmaceutical', 'Asia - Potash International Investment Guangzhou C', 'Unisplendour Corp. Ltd.', 'Jiangsu Eastern Shenghong Co. L', 'Shanghai International Port Gr', 'Jiangsu Hengrui Pharmaceutical', 'Jiangsu Hengrui Pharmaceuticals Co Ltd', 'Wanhua Chemical Group Co. Ltd.', 'China Avionics Systems Co Ltd A', 'China Merchants Bank Co Ltd', 'China Merchants Bank Co. Ltd.', 'Jiangsu Zhongtian Technology', 'Jiangsu Zhongtian Technology C', 'Jiangsu\xa0Zhongtian\xa0Technology', 'Xiamen Tungsten Co. Ltd.', 'CITIC Securities Co. Ltd.', 'Sichuan Road and Bridge Group', 'Zhangzhou Pientzehuang Pharmac', 'Zhangzhou Pientzehuang Pharmaceutical Co Ltd', 'Sany Heavy Industry Co. Ltd.', 'Zhongjin Gold Corp. Ltd.', 'NARI Technology Co. Ltd.', 'Tongwei Co. Ltd.', 'Zhejiang Sanhua Intelligent Controls Co. Ltd.', 'Bank of China Ltd.', 'Industrial &amp; Commercial Bank o', 'Industrial &amp; Commercial Bank of China Ltd', 'Sinoma Science &amp; Technology Co.', 'Industrial Bank Co. Ltd.', 'TCL Zhonghuan Renewable Energy', 'Bank of Ningbo Co. Ltd.', 'Western Mining Co. Ltd.', 'China Railway Group Ltd.', 'COSCO SHIPPING Development Co.', 'Goldwind Science &amp; Technology', 'Shanghai Electric Group Co. Ltd.', 'China State Construction Engin', 'Aier Eye Hospital Group Co. Ltd.', 'Eve Energy Co. Ltd.', 'Shenzhen Capchem Technology Co.', 'China National Chemical Engine', 'Zhejiang Chint Electrics Co Ltd', 'Zhejiang Chint Electrics Co. Lt', 'East Money Information Co. Ltd.', 'NAURA Technology Group Co. Ltd.', 'JA Solar Technology Co. Ltd.', 'Ganfeng Lithium Group Co Ltd', 'Ganfeng Lithium Group Co. Ltd.', 'Guangzhou Haige Communications', 'Shenzhen Inovance Technology C', 'Shenzhen Inovance Technology Co Ltd', 'Shenzhen Inovance Technology Co., Lt', 'Songcheng Performance Developm', 'Yonghui Superstores Co. Ltd.', 'Tianshan Aluminum Group Co. Ltd.', 'BYD Co Ltd', 'BYD Co. Ltd.', 'Sungrow Power Supply Co Ltd', 'Sungrow Power Supply Co. Ltd.', 'Kuang-Chi Technologies Co. Ltd.', 'Satellite Chemical Co. Ltd.', 'Zhongji Innolight Co. Ltd.', 'LONGi Green Energy Technology', 'Sichuan Hebang Biotechnology C', 'CMOC Group Ltd.', 'Guangzhou Tinci Materials Tech', 'Muyuan Foods Co. Ltd.', 'Foshan Haitian Flavouring &amp; Fo', 'Zhejiang Huayou Cobalt Co. Ltd.', 'Sinomine Resource Group Co. Ltd.', 'Orient Securities Co. Ltd/China', 'China National Nuclear Power C', 'Ningbo Tuopu Group Co. Ltd.', 'Wens Foodstuffs Group Co. Ltd.', 'Yealink Network Technology Cor', 'Foxconn Industrial Internet Co.', 'Contemporary Amperex Technolog', 'Contemporary Amperex Technology Co Ltd', 'Shenzhen Mindray Bio-Medical E', 'Shenzhen Mindray Bio-Medical Electronics Co Ltd', 'Shenzhen Transsion Holdings Co.', 'China Zheshang Bank Co Ltd', 'China Zheshang Bank Co. Ltd.', 'CNGR Advanced Material Co. Ltd.', 'Yunnan Botanee Bio-Technology Group Co. Ltd.', 'China Energy Engineering Corp.', 'China Three Gorges Renewables', 'China Three Gorges Renewables Group Co Ltd', 'Ningbo Deye Technology Co. Ltd.', 'CHINA GOVERNMENT BOND 3.48% 29.06.2027', 'CHINA GOVERNMENT BOND 4.15% 12.12.2031', 'CHINA GOVERNMENT BOND 2.82% 12.08.2032', 'COUNTRY GARDEN HLDGS 5.125% 14.01.2027', 'COUNTRY GARDEN HLDGS 4.8% 06.08.2030', 'COUNTRY GARDEN HLDGS 3.3% 12.01.2031']</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Kalundborg', 'Fanø', 'Mariagerfjord', 'Odense', 'Randers', 'København', 'Esbjerg', 'Aalborg', 'Aarhus']</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Kirgisistan</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Menneskerettigheder; Klima</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>kirgisistan</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>eritrea</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5915,11 +5756,6 @@
         </is>
       </c>
       <c r="G144" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5928,7 +5764,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Etiopien</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5936,10 +5772,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>laos</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>etiopien</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5953,11 +5793,6 @@
         </is>
       </c>
       <c r="G145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5966,7 +5801,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5974,10 +5809,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>liberia</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>guinea</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5991,11 +5830,6 @@
         </is>
       </c>
       <c r="G146" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6004,18 +5838,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Irak</t>
+          <t>Libyen</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>Menneskerettigheder; Klima</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>libyen</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>irak</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6029,11 +5867,6 @@
         </is>
       </c>
       <c r="G147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6042,18 +5875,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Menneskerettigheder; Klima</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>myanmar</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>iran</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6067,11 +5904,6 @@
         </is>
       </c>
       <c r="G148" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6080,7 +5912,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Kina</t>
+          <t>Nordkorea</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6088,48 +5920,51 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>nordkorea</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>kina</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>['CND10006GPT1', 'CNE000000040', 'CNE0000000K1', 'CNE0000000T2', 'CNE000000222', 'CNE000000230', 'CNE0000007H2', 'CNE000000BQ0', 'CNE000000C66', 'CNE000000FH0', 'CNE000000JP5', 'CNE000000M72', 'CNE000000MK0', 'CNE000000PY4', 'CNE000000RM5', 'CNE000000S01', 'CNE000000SW2', 'CNE000000V89', 'CNE000000W05', 'CNE000000WL7', 'CNE000000WR4', 'CNE000000X38', 'CNE000000XS0', 'CNE0000010T1', 'CNE0000012K6', 'CNE0000013N8', 'CNE0000014W7', 'CNE0000016J9', 'CNE0000018C0', 'CNE000001B33', 'CNE000001CW4', 'CNE000001D15', 'CNE000001DB6', 'CNE000001DQ4', 'CNE000001F21', 'CNE000001F70', 'CNE000001FM8', 'CNE000001G38', 'CNE000001GS3', 'CNE000001M22', 'CNE000001N05', 'CNE000001P37', 'CNE000001P78', 'CNE000001QZ7', 'CNE1000000B8', 'CNE1000005P7', 'CNE100000619', 'CNE100000866', 'CNE1000008F2', 'CNE1000008S5', 'CNE100000D55', 'CNE100000F46', 'CNE100000GR6', 'CNE100000GS4', 'CNE100000K15', 'CNE100000KC0', 'CNE100000KD8', 'CNE100000MD4', 'CNE100000ML7', 'CNE100000SD1', 'CNE100000SF6', 'CNE100000T24', 'CNE100000V46', 'CNE100000XG4', 'CNE100000XX9', 'CNE100000YJ6', 'CNE100001526', 'CNE1000018M7', 'CNE1000018P0', 'CNE100001B07', 'CNE100001CY9', 'CNE100001FR6', 'CNE100001JM9', 'CNE100001NR0', 'CNE100001RG4', 'CNE100001RQ3', 'CNE100001SL2', 'CNE100001VW3', 'CNE100001WV3', 'CNE100001ZV6', 'CNE1000022N7', 'CNE1000023J3', 'CNE100002508', 'CNE100002PC5', 'CNE1000031P3', 'CNE100003662', 'CNE100003G67', 'CNE100003P74', 'CNE100003PS9', 'CNE1000049X9', 'CNE100004G74', 'CNE100004QL0', 'CNE1000051F2', 'CNE1000052S3', 'HK0000116415', 'HK0000317732', 'HK0000867637', 'XS2100725949', 'XS2210960378', 'XS2280833307']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>['Kina']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>['CHINA GOVERNMENT BOND 2.67% 25.05.2033', 'Ping An Bank Co. Ltd.', 'CECEP Solar Energy Co. Ltd.', 'China Vanke Co. Ltd.', 'China Vanke Co Ltd', 'China Baoan Group Co. Ltd.', 'Fuyao Glass Industry Group Co.', 'Pangang Group Vanadium Titaniu', 'Sichuan Chuantou Energy Co. Ltd.', 'Shanghai Baosight Software Co.', 'XCMG Construction Machinery Co.', 'Inner Mongolia Yili Industrial', 'Inner Mongolia Yili Industrial Group Co Ltd', 'Wingtech Technology Co. Ltd.', 'Shanghai Jinjiang Internationa', 'Yutong Bus Co. Ltd.', 'AECC Aero-Engine Control Co. Lt', 'Yunnan Yuntianhua Co. Ltd.', 'Qinghai Salt Lake Industry Co. Ltd.', 'Shanghai International Airport', 'China CSSC Holdings Ltd.', 'Xiamen C &amp; D Inc.', 'Shanghai Construction Group Co.', 'Shanghai Fosun Pharmaceutical', 'Asia - Potash International Investment Guangzhou C', 'Unisplendour Corp. Ltd.', 'Jiangsu Eastern Shenghong Co. L', 'Shanghai International Port Gr', 'Jiangsu Hengrui Pharmaceutical', 'Jiangsu Hengrui Pharmaceuticals Co Ltd', 'Wanhua Chemical Group Co. Ltd.', 'China Avionics Systems Co Ltd A', 'China Merchants Bank Co. Ltd.', 'China Merchants Bank Co Ltd', 'Jiangsu Zhongtian Technology C', 'Jiangsu Zhongtian Technology', 'Jiangsu\xa0Zhongtian\xa0Technology', 'Xiamen Tungsten Co. Ltd.', 'CITIC Securities Co. Ltd.', 'Sichuan Road and Bridge Group', 'Zhangzhou Pientzehuang Pharmac', 'Zhangzhou Pientzehuang Pharmaceutical Co Ltd', 'Sany Heavy Industry Co. Ltd.', 'Zhongjin Gold Corp. Ltd.', 'NARI Technology Co. Ltd.', 'Tongwei Co. Ltd.', 'Zhejiang Sanhua Intelligent Controls Co. Ltd.', 'Bank of China Ltd.', 'Industrial &amp; Commercial Bank o', 'Industrial &amp; Commercial Bank of China Ltd', 'Sinoma Science &amp; Technology Co.', 'Industrial Bank Co. Ltd.', 'TCL Zhonghuan Renewable Energy', 'Bank of Ningbo Co. Ltd.', 'Western Mining Co. Ltd.', 'China Railway Group Ltd.', 'COSCO SHIPPING Development Co.', 'Goldwind Science &amp; Technology', 'Shanghai Electric Group Co. Ltd.', 'China State Construction Engin', 'Aier Eye Hospital Group Co. Ltd.', 'Eve Energy Co. Ltd.', 'Shenzhen Capchem Technology Co.', 'China National Chemical Engine', 'Zhejiang Chint Electrics Co. Lt', 'Zhejiang Chint Electrics Co Ltd', 'East Money Information Co. Ltd.', 'NAURA Technology Group Co. Ltd.', 'JA Solar Technology Co. Ltd.', 'Ganfeng Lithium Group Co. Ltd.', 'Ganfeng Lithium Group Co Ltd', 'Guangzhou Haige Communications', 'Shenzhen Inovance Technology C', 'Shenzhen Inovance Technology Co Ltd', 'Shenzhen Inovance Technology Co., Lt', 'Songcheng Performance Developm', 'Yonghui Superstores Co. Ltd.', 'Tianshan Aluminum Group Co. Ltd.', 'BYD Co. Ltd.', 'BYD Co Ltd', 'Sungrow Power Supply Co. Ltd.', 'Sungrow Power Supply Co Ltd', 'Kuang-Chi Technologies Co. Ltd.', 'Satellite Chemical Co. Ltd.', 'Zhongji Innolight Co. Ltd.', 'LONGi Green Energy Technology', 'Sichuan Hebang Biotechnology C', 'CMOC Group Ltd.', 'Guangzhou Tinci Materials Tech', 'Muyuan Foods Co. Ltd.', 'Foshan Haitian Flavouring &amp; Fo', 'Zhejiang Huayou Cobalt Co. Ltd.', 'Sinomine Resource Group Co. Ltd.', 'Orient Securities Co. Ltd/China', 'China National Nuclear Power C', 'Ningbo Tuopu Group Co. Ltd.', 'Wens Foodstuffs Group Co. Ltd.', 'Yealink Network Technology Cor', 'Foxconn Industrial Internet Co.', 'Contemporary Amperex Technolog', 'Contemporary Amperex Technology Co Ltd', 'Shenzhen Mindray Bio-Medical E', 'Shenzhen Mindray Bio-Medical Electronics Co Ltd', 'Shenzhen Transsion Holdings Co.', 'China Zheshang Bank Co. Ltd.', 'China Zheshang Bank Co Ltd', 'CNGR Advanced Material Co. Ltd.', 'Yunnan Botanee Bio-Technology Group Co. Ltd.', 'China Energy Engineering Corp.', 'China Three Gorges Renewables', 'China Three Gorges Renewables Group Co Ltd', 'Ningbo Deye Technology Co. Ltd.', 'CHINA GOVERNMENT BOND 3.48% 29.06.2027', 'CHINA GOVERNMENT BOND 4.15% 12.12.2031', 'CHINA GOVERNMENT BOND 2.82% 12.08.2032', 'COUNTRY GARDEN HLDGS 5.125% 14.01.2027', 'COUNTRY GARDEN HLDGS 4.8% 06.08.2030', 'COUNTRY GARDEN HLDGS 3.3% 12.01.2031']</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>['Kalundborg', 'Fanø', 'Mariagerfjord', 'Odense', 'Randers', 'Esbjerg', 'København', 'Aalborg', 'Aarhus']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Kirgisistan</t>
+          <t>Rusland</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>Menneskerettigheder; Klima</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>rusland</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>kirgisistan</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6143,11 +5978,6 @@
         </is>
       </c>
       <c r="G150" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6156,7 +5986,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6164,86 +5994,88 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>rwanda</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>laos</t>
+          <t>['XS2373051320']</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Republic of Rwanda', '5.50% Rwanda International Government Bond 2031', 'Rwanda International Government Bond', 'REPUBLIC OF RWANDA  ', 'Rwanda']</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5,5 RWANDA 09-08-2031 (REGS)', '5.50% Rwanda International Government Bond 2031', 'REPUBLIC OF RWANDA 5.5% 09.08.2031']</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Herning', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Kalundborg', 'Fanø', 'Rødovre', 'Vejen']</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Saudi Arabien</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>Menneskerettigheder; Klima</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>saudiarabien</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>liberia</t>
+          <t>['SA0007879048', 'SA0007879055', 'SA0007879063', 'SA0007879089', 'SA0007879105', 'SA0007879113', 'SA0007879121', 'SA0007879139', 'SA0007879162', 'SA0007879543', 'SA0007879782', 'SA000A0B89Q3', 'SA000A0BLA62', 'SA000A0D9HK3', 'SA000A0DM9P2', 'SA000A0DPSH3', 'SA000A0ETHT1', 'SA000A0HNF36', 'SA000A0JK5M3', 'SA000A0KFKK0', 'SA000A0LE310', 'SA000A0MQCJ2', 'SA11U0S23612', 'SA121053DR18', 'SA1210540914', 'SA122050HV19', 'SA123GA0ITH7', 'SA135G51UI10', 'SA13L050IE10', 'SA1510P1UMH1', 'SA15CIBJGH12', 'SA15GG53GHH3', 'SA15HG521213', 'XS1791939736', 'XS2109770151', 'XS2294323386', 'XS2577134401', 'XS2577135127', 'XS2577136109', 'XS2626270040', 'XS2626274463', 'XS2747598444', 'XS2747599095', 'XS2747599509', 'XS2829208599', 'XS2830523465']</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi-Arabien']</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Riyad Bank', 'Bank Al-Jazira', 'Saudi Investment Bank/The', 'Saudi Awwal Bank', 'Arab National Bank', 'Al Rajhi Bank', 'Saudi Basic Industries Corp.', 'SABIC Agri-Nutrients Co.', 'Savola Group/The', 'Saudi Telecom Co.', 'Banque Saudi Fransi', 'Saudi Industrial Investment Gr', 'Jarir Marketing Co.', 'Bank AlBilad', 'Etihad Etisalat Co.', 'Co for Cooperative Insurance/The', 'Almarai Co. JSC', 'Yanbu National Petrochemical C', 'Saudi Research &amp; Media Group', 'Sahara International Petrochem', 'Advanced Petrochemical Co.', 'Saudi Kayan Petrochemical Co.', 'Dar Al Arkan Real Estate Devel', 'Mobile Telecommunications Co. S', 'Bupa Arabia for Cooperative In', 'Alinma Bank', 'Saudi Arabian Mining Co.', 'Dallah Healthcare Co.', 'Saudi National Bank/The', 'Dr Sulaiman Al Habib Medical S', 'Arabian Internet &amp; Communicati', 'Elm Co.', 'Nahdi Medical Co.', 'SAUDI INTERNATIONAL BOND 5% 17.04.2049', 'SAUDI INTERNATIONAL BOND 3.75% 21.01.2055', 'SAUDI INTERNATIONAL BOND 3.45% 02.02.2061', 'SAUDI INTERNATIONAL BOND 4.75% 18.01.2028', 'SAUDI INTERNATIONAL BOND 4.875% 18.07.2033', 'SAUDI INTERNATIONAL BOND 5% 18.01.2053', 'KSA SUKUK LTD 4.274% 22.05.2029', 'KSA SUKUK LTD 4.511% 22.05.2033', 'SAUDI INTERNATIONAL BOND 4.75% 16.01.2030', 'SAUDI INTERNATIONAL BOND 5% 16.01.2034', 'SAUDI INTERNATIONAL BOND 5.75% 16.01.2054', 'KSA SUKUK LTD 5.25% 04.06.2030', 'KSA SUKUK LTD 5.25% 04.06.2027']</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Fanø', 'Kalundborg']</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Libyen</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Menneskerettigheder; Klima</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>somalia</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>libyen</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6257,11 +6089,6 @@
         </is>
       </c>
       <c r="G153" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6270,7 +6097,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6278,37 +6105,36 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>sudan</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>mali</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>['CA89156V1067']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>['Tourmaline Oil Corp.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>['Tourmaline Oil Corp.']</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>['Rødovre']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Sydsudan</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6316,10 +6142,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>sydsudan</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>myanmar</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6333,11 +6163,6 @@
         </is>
       </c>
       <c r="G155" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6346,7 +6171,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nordkorea</t>
+          <t>Syrien</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6354,10 +6179,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>syrien</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>nordkorea</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6371,11 +6200,6 @@
         </is>
       </c>
       <c r="G156" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6384,79 +6208,81 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Niger</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
+          <t>Tajikistan</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>tajikistan</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>niger</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>['XS1717011982', 'XS1717013095', 'XS1777972941', 'XS1910826996', 'XS1910827887', 'XS1910828182', 'XS2337067792', 'XS2384701020', 'XS2384704800', 'XS2445169985']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>['NIGERIA, FEDERAL REPUBLIC OF (GOVERNMENT)', 'Nigeria', 'Nigeria Government International Bond', 'REPUBLIC OF NIGERIA  ', '7.63% Nigeria Government International Bond 2025', '8.75% Nigeria Government International Bond 2031', 'Federal Republic of Nigeria', '8.38% Nigeria Government International Bond 2029']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>['Nigeria, Federal Republic Of (Government) 6.5% 20271128', 'REPUBLIC OF NIGERIA 7.625% 28.11.2047', 'Nigeria, Federal Republic Of (Government) 7.625% 20471128', 'Nigeria, Federal Republic Of (Government) 7.696% 20380223', '7.63% Nigeria Government International Bond 2025', 'Nigeria, Federal Republic Of (Government) 7.625% 20251121', '8.75% Nigeria Government International Bond 2031', 'REPUBLIC OF NIGERIA 8.747% 21.01.2031', 'Nigeria, Federal Republic Of (Government) 8.747% 20310121', 'Nigeria, Federal Republic Of (Government) 9.248% 20490121', 'AFRICA FINANCE CORP 2.875% 28.04.2028', '7,375 NGERIA 28-09-2033 (REGS)', 'REPUBLIC OF NIGERIA 7.375% 28.09.2033', '8,25 NGERIA 28-09-2051 (REGS)', 'REPUBLIC OF NIGERIA 8.25% 28.09.2051', 'Nigeria, Federal Republic Of (Government) 8.25% 20510928', '8.38% Nigeria Government International Bond 2029', '8,375 NGERIA 24-03-2029 (REGS)', 'REPUBLIC OF NIGERIA 8.375% 24.03.2029', 'Nigeria, Federal Republic Of (Government) 8.375% 20290324']</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>['Vesthimmerland', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Herning']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Rusland</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Menneskerettigheder; Klima</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>togo</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>rusland</t>
+          <t>['XS2063540038', 'XS2288824969']</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Togo']</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['BANQUE OUEST AFRICAINE D 4.7% 22.10.2031', 'BANQUE OUEST AFRICAINE D 2.75% 22.01.2033']</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['Fanø', 'Kalundborg']</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6464,86 +6290,88 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>turkmenistan</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>rwanda</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['XS2373051320']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>['5.50% Rwanda International Government Bond 2031', 'Republic of Rwanda', 'REPUBLIC OF RWANDA  ', 'Rwanda', 'Rwanda International Government Bond']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>['5.50% Rwanda International Government Bond 2031', '5,5 RWANDA 09-08-2031 (REGS)', 'REPUBLIC OF RWANDA 5.5% 09.08.2031']</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>['Ringkøbing-Skjern', 'Herning', 'Kalundborg', 'Fanø', 'Region Nordjylland', 'Rødovre', 'Vejen']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Saudi Arabien</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Menneskerettigheder; Klima</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
+          <t>Menneskerettigheder</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>venezuela</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>saudiarabien</t>
+          <t>['US922646AS37', 'USP17625AB33', 'USP17625AC16', 'USP17625AD98', 'USP17625AE71', 'USP17625AA59', 'USP7807HAR68', 'USP7807HAT25', 'USP7807HAV70', 'USP97475AP55', 'XS0217249126', 'XS0294364954', 'XS0294367205']</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['SA0007879048', 'SA0007879055', 'SA0007879063', 'SA0007879089', 'SA0007879105', 'SA0007879113', 'SA0007879121', 'SA0007879139', 'SA0007879162', 'SA0007879543', 'SA0007879782', 'SA000A0B89Q3', 'SA000A0BLA62', 'SA000A0D9HK3', 'SA000A0DM9P2', 'SA000A0DPSH3', 'SA000A0ETHT1', 'SA000A0HNF36', 'SA000A0JK5M3', 'SA000A0KFKK0', 'SA000A0LE310', 'SA000A0MQCJ2', 'SA11U0S23612', 'SA121053DR18', 'SA1210540914', 'SA122050HV19', 'SA123GA0ITH7', 'SA135G51UI10', 'SA13L050IE10', 'SA1510P1UMH1', 'SA15CIBJGH12', 'SA15GG53GHH3', 'SA15HG521213', 'XS1791939736', 'XS2109770151', 'XS2294323386', 'XS2577134401', 'XS2577135127', 'XS2577136109', 'XS2626270040', 'XS2626274463', 'XS2747598444', 'XS2747599095', 'XS2747599509', 'XS2829208599', 'XS2830523465']</t>
+          <t>['REPUBLIC OF VENEZUELA ', 'Venezuela', 'Venezuela Government International Bond', 'Petroleos de Venezuela SA', 'PETROLEOS DE VENEZUELA S ', '8.50% Petroleos de Venezuela SA 2020']</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>['Saudi-Arabien']</t>
+          <t>['REPUBLIC OF VENEZUELA 15.09.2027', 'REPUBLIC OF VENEZUELA 07.05.2028', 'REPUBLIC OF VENEZUELA 23.08.2022', 'REPUBLIC OF VENEZUELA 05.08.2031', 'REPUBLIC OF VENEZUELA 21.10.2026', 'REPUBLIC OF VENEZUELA 07.05.2023', 'PETROLEOS DE VENEZUELA S 15.11.2026', 'PETROLEOS DE VENEZUELA S 16.05.2024', '8.50% Petroleos de Venezuela SA 2020', 'REPUBLIC OF VENEZUELA 13.10.2024', 'REPUBLIC OF VENEZUELA 21.04.2025', 'PETROLEOS DE VENEZUELA S 12.04.2027', 'PETROLEOS DE VENEZUELA S 12.04.2037']</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>['Riyad Bank', 'Bank Al-Jazira', 'Saudi Investment Bank/The', 'Saudi Awwal Bank', 'Arab National Bank', 'Al Rajhi Bank', 'Saudi Basic Industries Corp.', 'SABIC Agri-Nutrients Co.', 'Savola Group/The', 'Saudi Telecom Co.', 'Banque Saudi Fransi', 'Saudi Industrial Investment Gr', 'Jarir Marketing Co.', 'Bank AlBilad', 'Etihad Etisalat Co.', 'Co for Cooperative Insurance/The', 'Almarai Co. JSC', 'Yanbu National Petrochemical C', 'Saudi Research &amp; Media Group', 'Sahara International Petrochem', 'Advanced Petrochemical Co.', 'Saudi Kayan Petrochemical Co.', 'Dar Al Arkan Real Estate Devel', 'Mobile Telecommunications Co. S', 'Bupa Arabia for Cooperative In', 'Alinma Bank', 'Saudi Arabian Mining Co.', 'Dallah Healthcare Co.', 'Saudi National Bank/The', 'Dr Sulaiman Al Habib Medical S', 'Arabian Internet &amp; Communicati', 'Elm Co.', 'Nahdi Medical Co.', 'SAUDI INTERNATIONAL BOND 5% 17.04.2049', 'SAUDI INTERNATIONAL BOND 3.75% 21.01.2055', 'SAUDI INTERNATIONAL BOND 3.45% 02.02.2061', 'SAUDI INTERNATIONAL BOND 4.75% 18.01.2028', 'SAUDI INTERNATIONAL BOND 4.875% 18.07.2033', 'SAUDI INTERNATIONAL BOND 5% 18.01.2053', 'KSA SUKUK LTD 4.274% 22.05.2029', 'KSA SUKUK LTD 4.511% 22.05.2033', 'SAUDI INTERNATIONAL BOND 4.75% 16.01.2030', 'SAUDI INTERNATIONAL BOND 5% 16.01.2034', 'SAUDI INTERNATIONAL BOND 5.75% 16.01.2054', 'KSA SUKUK LTD 5.25% 04.06.2030', 'KSA SUKUK LTD 5.25% 04.06.2027']</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>['Fanø', 'Kalundborg']</t>
+          <t>['Kalundborg', 'Rødovre', 'Vejen', 'Fanø', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
+          <t>Menneskerettigheder; Klima</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>yemen</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>somalia</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6557,11 +6385,6 @@
         </is>
       </c>
       <c r="G161" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6570,7 +6393,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Ækvatorialguinea</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6578,10 +6401,14 @@
           <t>Menneskerettigheder</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>ækvatorialguinea</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>sudan</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6595,315 +6422,6 @@
         </is>
       </c>
       <c r="G162" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Sydsudan</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>sydsudan</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Syrien</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>syrien</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Tajikistan</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>tajikistan</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>togo</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>['XS2063540038', 'XS2288824969']</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>['Togo']</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>['BANQUE OUEST AFRICAINE D 4.7% 22.10.2031', 'BANQUE OUEST AFRICAINE D 2.75% 22.01.2033']</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>['Fanø', 'Kalundborg']</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Turkmenistan</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>turkmenistan</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>venezuela</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>['US922646AS37', 'USP17625AB33', 'USP17625AC16', 'USP17625AD98', 'USP17625AE71', 'USP17625AA59', 'USP7807HAR68', 'USP7807HAT25', 'USP7807HAV70', 'USP97475AP55', 'XS0217249126', 'XS0294364954', 'XS0294367205']</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>['REPUBLIC OF VENEZUELA ', 'Venezuela', 'Venezuela Government International Bond', 'Petroleos de Venezuela SA', 'PETROLEOS DE VENEZUELA S ', '8.50% Petroleos de Venezuela SA 2020']</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>['REPUBLIC OF VENEZUELA 15.09.2027', 'REPUBLIC OF VENEZUELA 07.05.2028', 'REPUBLIC OF VENEZUELA 23.08.2022', 'REPUBLIC OF VENEZUELA 05.08.2031', 'REPUBLIC OF VENEZUELA 21.10.2026', 'REPUBLIC OF VENEZUELA 07.05.2023', 'PETROLEOS DE VENEZUELA S 15.11.2026', 'PETROLEOS DE VENEZUELA S 16.05.2024', '8.50% Petroleos de Venezuela SA 2020', 'REPUBLIC OF VENEZUELA 13.10.2024', 'REPUBLIC OF VENEZUELA 21.04.2025', 'PETROLEOS DE VENEZUELA S 12.04.2027', 'PETROLEOS DE VENEZUELA S 12.04.2037']</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>['Kalundborg', 'Rødovre', 'Vejen', 'Fanø', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Menneskerettigheder; Klima</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>yemen</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Ækvatorialguinea</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Menneskerettigheder</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>ækvatorialguinea</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/data/Eksklusionslister/Akademiker Pension_eksklusionsliste_isin.xlsx
+++ b/data/Eksklusionslister/Akademiker Pension_eksklusionsliste_isin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anja\OneDrive - Gravercentret\Dokumenter\Python_projekter\kommune_investering\data\Eksklusionslister\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBCA151-9430-429A-A683-11205AC8DBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC40A8F-F360-4901-8154-D4B0E7D22522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="319">
   <si>
     <t>Selskab</t>
   </si>
@@ -959,27 +959,6 @@
   </si>
   <si>
     <t>vectorgroupltd</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>afghanistan</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>azerbaijan</t>
-  </si>
-  <si>
-    <t>['XS1319820897', 'XS1678623734']</t>
-  </si>
-  <si>
-    <t>['Azerbaijan', 'Republic of Azerbaijan', 'Republic of Azerbaijan International Bond', 'REPUBLIC OF AZERBAIJAN  ']</t>
-  </si>
-  <si>
-    <t>['SOUTHERN GAS CORRIDOR 6.875% 24.03.2026', '3,5 AZERBJ 01-09-2032 (REGS)', 'REPUBLIC OF AZERBAIJAN 3.5% 01.09.2032']</t>
   </si>
   <si>
     <t>['Fanø', 'Kalundborg', 'Herning', 'Rødovre', 'Vejen']</t>
@@ -1362,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,49 +4249,13 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
         <v>313</v>
-      </c>
-      <c r="B127" t="s">
-        <v>58</v>
-      </c>
-      <c r="C127" t="s">
-        <v>314</v>
-      </c>
-      <c r="D127" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>315</v>
-      </c>
-      <c r="B128" t="s">
-        <v>58</v>
-      </c>
-      <c r="C128" t="s">
-        <v>316</v>
-      </c>
-      <c r="D128" t="s">
-        <v>317</v>
-      </c>
-      <c r="E128" t="s">
-        <v>318</v>
-      </c>
-      <c r="F128" t="s">
-        <v>319</v>
-      </c>
-      <c r="G128" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.25">
@@ -4327,7 +4270,7 @@
     </row>
     <row r="131" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G131" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="7:7" x14ac:dyDescent="0.25">
@@ -4387,7 +4330,7 @@
     </row>
     <row r="143" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.25">
@@ -4427,12 +4370,12 @@
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G151" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G152" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.25">
@@ -4462,7 +4405,7 @@
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.25">
@@ -4472,7 +4415,7 @@
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G160" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.25">
